--- a/data/db_orders_no_metadata.xlsx
+++ b/data/db_orders_no_metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAran\Desktop\Files\duty\Uniss\EnhanceFAIRness_spreadsheet_to_db\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667098E5-3162-480E-A151-5A1E741B9C09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{546BE887-4339-4E8F-A18F-86E56B26F2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{2BC70B75-1CB6-4C59-8FA6-7A5373E3EEC1}"/>
   </bookViews>
@@ -168,9 +168,6 @@
     <t>quantity</t>
   </si>
   <si>
-    <t>image</t>
-  </si>
-  <si>
     <t>column_1</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>sunglasses.jpg</t>
+  </si>
+  <si>
+    <t>img_product</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +800,7 @@
         <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -814,7 +814,7 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -842,7 +842,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -856,7 +856,7 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,7 +870,7 @@
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -884,7 +884,7 @@
         <v>33</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -990,25 +990,26 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>36</v>
-      </c>
-      <c r="B1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2">
         <v>42</v>
